--- a/Resultados/Resultado_final_5.xlsx
+++ b/Resultados/Resultado_final_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="676" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1300" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -82,10 +82,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="true"/>
-    <col min="2" max="2" width="24.5546875" customWidth="true"/>
-    <col min="3" max="3" width="6.5546875" customWidth="true"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true"/>
+    <col min="1" max="1" width="17.28515625" customWidth="true"/>
+    <col min="2" max="2" width="26.5703125" customWidth="true"/>
+    <col min="3" max="3" width="7" customWidth="true"/>
+    <col min="4" max="4" width="12.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>22.512885230244141</v>
+        <v>41.161444616957041</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>26.305626919805025</v>
+        <v>29.902382430879161</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -135,10 +135,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>26.351194262830358</v>
+        <v>57.523100956607323</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="0">
         <v>5</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>22.546760572035556</v>
+        <v>36.162224223628385</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>15.086872184747952</v>
+        <v>43.47519282301225</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>15.002616300851033</v>
+        <v>36.480829203660804</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -191,10 +191,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>10.879689013723398</v>
+        <v>56.254463714929003</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="0">
         <v>5</v>
@@ -205,10 +205,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>15.075735567562939</v>
+        <v>65.212449029215065</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="0">
         <v>5</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>13.890097825378595</v>
+        <v>35.214777243323809</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>11.958527741202804</v>
+        <v>15.144898814220445</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -247,10 +247,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>11.985936523437012</v>
+        <v>66.723908192487443</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="0">
         <v>5</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>13.894366230686323</v>
+        <v>32.742912113748979</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>9.7928700689630492</v>
+        <v>29.679603852042085</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>9.4401043849072153</v>
+        <v>20.954065203736182</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>9.803195963538073</v>
+        <v>46.935244797546908</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -317,10 +317,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>9.4749155134439498</v>
+        <v>54.204233783957001</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0">
         <v>5</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>9.310188229158662</v>
+        <v>14.667531017136056</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>9.3484128530548389</v>
+        <v>11.73558478092216</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>9.6856955382910996</v>
+        <v>1.8979377877024091</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>9.7510875757633197</v>
+        <v>38.191429038330526</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>11.628489996623683</v>
+        <v>3.6869022152205493</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>3.4808657178778115</v>
+        <v>3.6841909198683251</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>6.2130484050147938</v>
+        <v>19.361092287372234</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>3.4976561931353434</v>
+        <v>19.962870007831299</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>14.751114604791132</v>
+        <v>4.456418437570715</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>0.83482441398485319</v>
+        <v>7.9668941497180361</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>0.89288302224215554</v>
+        <v>1.163515521010732</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>14.700626899948915</v>
+        <v>3.9442184960758206</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>17.310054825214511</v>
+        <v>17.327877474130489</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>2.4916038867803039</v>
+        <v>14.004420245915178</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>3.3378188346734721</v>
+        <v>11.694607160508415</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>2.4962450096155258</v>
+        <v>11.314121323769195</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>20.463802305986832</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="0">
         <v>5</v>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>2.1925471164432411</v>
+        <v>20.247071385898238</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>3</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>2.2297185410683893</v>
+        <v>13.125545125812508</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>20.431979092009023</v>
+        <v>15.892106727788349</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
@@ -611,10 +611,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="0">
-        <v>92.433949700098722</v>
+        <v>24.076847705413588</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="0">
         <v>5</v>
@@ -625,7 +625,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="0">
-        <v>2.7774838734592397</v>
+        <v>23.625363927203612</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>3</v>
@@ -639,7 +639,7 @@
         <v>43</v>
       </c>
       <c r="B40" s="0">
-        <v>3.3527437519383771</v>
+        <v>16.284986166902623</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>3</v>
@@ -653,7 +653,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="0">
-        <v>2.7783727994139888</v>
+        <v>19.061158196272469</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>3</v>
@@ -667,7 +667,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="0">
-        <v>98.185621600652397</v>
+        <v>68.537876319164127</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>4</v>
@@ -681,10 +681,10 @@
         <v>46</v>
       </c>
       <c r="B43" s="0">
-        <v>20.602030947186147</v>
+        <v>78.228979102740368</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="0">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>47</v>
       </c>
       <c r="B44" s="0">
-        <v>7.9618156878784996</v>
+        <v>24.281969699999379</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="0">
-        <v>20.561900877396827</v>
+        <v>7.6890682674237611</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>3</v>
@@ -723,7 +723,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="0">
-        <v>100</v>
+        <v>56.659933100614403</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>4</v>
@@ -737,10 +737,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="0">
-        <v>25.700165062895607</v>
+        <v>63.114606502022497</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="0">
         <v>5</v>
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="0">
-        <v>10.219104770780998</v>
+        <v>26.923029671273056</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="0">
-        <v>25.587506617417056</v>
+        <v>5.8892905616486813</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>3</v>

--- a/Resultados/Resultado_final_5.xlsx
+++ b/Resultados/Resultado_final_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1300" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1612" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -107,7 +107,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>41.161444616957041</v>
+        <v>23.033212251644926</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>3</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>29.902382430879161</v>
+        <v>8.4213677049844478</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -135,10 +135,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>57.523100956607323</v>
+        <v>23.033206852760955</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0">
         <v>5</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>36.162224223628385</v>
+        <v>28.713401849058545</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>43.47519282301225</v>
+        <v>23.697298593708194</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>36.480829203660804</v>
+        <v>13.853638093722953</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -191,10 +191,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>56.254463714929003</v>
+        <v>13.853645227724149</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="0">
         <v>5</v>
@@ -205,10 +205,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>65.212449029215065</v>
+        <v>23.697302741735783</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="0">
         <v>5</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>35.214777243323809</v>
+        <v>16.498723922351509</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>15.144898814220445</v>
+        <v>7.7613286442148874</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -247,10 +247,10 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>66.723908192487443</v>
+        <v>16.498731376769143</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0">
         <v>5</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>32.742912113748979</v>
+        <v>15.29880303609411</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>29.679603852042085</v>
+        <v>13.784791641057234</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>20.954065203736182</v>
+        <v>10.302546905712973</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>46.935244797546908</v>
+        <v>10.302562423633963</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -317,10 +317,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>54.204233783957001</v>
+        <v>13.784802450492267</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="0">
         <v>5</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>14.667531017136056</v>
+        <v>9.4393472041143447</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>11.73558478092216</v>
+        <v>10.05843888940098</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>1.8979377877024091</v>
+        <v>11.142551136716008</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>38.191429038330526</v>
+        <v>10.058457039122224</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>3.6869022152205493</v>
+        <v>4.2166270124956347</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>3.6841909198683251</v>
+        <v>14.48824996338735</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>19.361092287372234</v>
+        <v>14.488274431607293</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>19.962870007831299</v>
+        <v>4.2166508054811116</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>4.456418437570715</v>
+        <v>9.5469188802390317</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>7.9668941497180361</v>
+        <v>12.30054358471013</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1.163515521010732</v>
+        <v>9.5469431454039828</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>3.9442184960758206</v>
+        <v>4.2404577597967172</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>17.327877474130489</v>
+        <v>9.2062010014993021</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>14.004420245915178</v>
+        <v>24.612616542158474</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>11.694607160508415</v>
+        <v>24.612640471651808</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>11.314121323769195</v>
+        <v>9.2062222823830346</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
@@ -555,10 +555,10 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>100</v>
+        <v>27.798000683668846</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" s="0">
         <v>5</v>
@@ -569,10 +569,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>20.247071385898238</v>
+        <v>100</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" s="0">
         <v>5</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>13.125545125812508</v>
+        <v>27.798025092886135</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>15.892106727788349</v>
+        <v>10.213339618352565</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
@@ -611,7 +611,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="0">
-        <v>24.076847705413588</v>
+        <v>14.80154057588951</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>3</v>
@@ -625,10 +625,10 @@
         <v>42</v>
       </c>
       <c r="B39" s="0">
-        <v>23.625363927203612</v>
+        <v>83.608681255222479</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" s="0">
         <v>5</v>
@@ -639,10 +639,10 @@
         <v>43</v>
       </c>
       <c r="B40" s="0">
-        <v>16.284986166902623</v>
+        <v>83.608692327551353</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" s="0">
         <v>5</v>
@@ -653,7 +653,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="0">
-        <v>19.061158196272469</v>
+        <v>14.801549627682467</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>3</v>
@@ -667,10 +667,10 @@
         <v>45</v>
       </c>
       <c r="B42" s="0">
-        <v>68.537876319164127</v>
+        <v>14.163826648677313</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" s="0">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="0">
-        <v>78.228979102740368</v>
+        <v>81.135834400346084</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>4</v>
@@ -695,10 +695,10 @@
         <v>47</v>
       </c>
       <c r="B44" s="0">
-        <v>24.281969699999379</v>
+        <v>81.135754012076958</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" s="0">
         <v>5</v>
@@ -709,7 +709,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="0">
-        <v>7.6890682674237611</v>
+        <v>14.163741777550257</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>3</v>
@@ -723,10 +723,10 @@
         <v>49</v>
       </c>
       <c r="B46" s="0">
-        <v>56.659933100614403</v>
+        <v>13.084318006936224</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="0">
         <v>5</v>
@@ -737,10 +737,10 @@
         <v>50</v>
       </c>
       <c r="B47" s="0">
-        <v>63.114606502022497</v>
+        <v>36.739566046987491</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="0">
         <v>5</v>
@@ -751,7 +751,7 @@
         <v>51</v>
       </c>
       <c r="B48" s="0">
-        <v>26.923029671273056</v>
+        <v>36.739380885186094</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>3</v>
@@ -765,7 +765,7 @@
         <v>52</v>
       </c>
       <c r="B49" s="0">
-        <v>5.8892905616486813</v>
+        <v>13.084124643940456</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>3</v>

--- a/Resultados/Resultado_final_5.xlsx
+++ b/Resultados/Resultado_final_5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1612" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1924" uniqueCount="6">
   <si>
     <t>Número_de_nodo</t>
   </si>
@@ -107,10 +107,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>23.033212251644926</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="0">
         <v>5</v>
@@ -121,7 +121,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>8.4213677049844478</v>
+        <v>12.175344642630336</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>3</v>
@@ -135,7 +135,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>23.033206852760955</v>
+        <v>10.456646301311579</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>3</v>
@@ -149,7 +149,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>28.713401849058545</v>
+        <v>9.0538672899212376</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>3</v>
@@ -163,7 +163,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>23.697298593708194</v>
+        <v>18.012803504617114</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>3</v>
@@ -177,7 +177,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>13.853638093722953</v>
+        <v>27.086341558957795</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
@@ -191,7 +191,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>13.853645227724149</v>
+        <v>0.95360471502073041</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>3</v>
@@ -205,7 +205,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>23.697302741735783</v>
+        <v>0.73672130126237845</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>3</v>
@@ -219,7 +219,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>16.498723922351509</v>
+        <v>14.99066279104909</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>3</v>
@@ -233,7 +233,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>7.7613286442148874</v>
+        <v>2.8252012668263577</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>3</v>
@@ -247,7 +247,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>16.498731376769143</v>
+        <v>0.44602408836175261</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>3</v>
@@ -261,7 +261,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>15.29880303609411</v>
+        <v>1.5092374093478464</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>3</v>
@@ -275,7 +275,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>13.784791641057234</v>
+        <v>6.3462631726232264</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>3</v>
@@ -289,7 +289,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>10.302546905712973</v>
+        <v>5.2619719943629466</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>3</v>
@@ -303,7 +303,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>10.302562423633963</v>
+        <v>0.037460294172174037</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>3</v>
@@ -317,7 +317,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>13.784802450492267</v>
+        <v>-0.061911975434463452</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>3</v>
@@ -331,7 +331,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>9.4393472041143447</v>
+        <v>0.74418250731580005</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>3</v>
@@ -345,7 +345,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>10.05843888940098</v>
+        <v>3.0973182025347943</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>3</v>
@@ -359,7 +359,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>11.142551136716008</v>
+        <v>0.19063432860569215</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>3</v>
@@ -373,7 +373,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>10.058457039122224</v>
+        <v>7.2804075816811507</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>3</v>
@@ -387,7 +387,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>4.2166270124956347</v>
+        <v>1.4032849104060305</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>3</v>
@@ -401,7 +401,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>14.48824996338735</v>
+        <v>1.4404806820155465</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>14.488274431607293</v>
+        <v>-0.17867122406595329</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>3</v>
@@ -429,7 +429,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>4.2166508054811116</v>
+        <v>-0.33324177289554791</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>3</v>
@@ -443,7 +443,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>9.5469188802390317</v>
+        <v>0.52208094039366648</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>3</v>
@@ -457,7 +457,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>12.30054358471013</v>
+        <v>0.010524643815325391</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>3</v>
@@ -471,7 +471,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>9.5469431454039828</v>
+        <v>-0.11550519644125562</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>3</v>
@@ -485,7 +485,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>4.2404577597967172</v>
+        <v>-0.00076051787296720378</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>3</v>
@@ -499,7 +499,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>9.2062010014993021</v>
+        <v>0.13416017514476683</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>3</v>
@@ -513,7 +513,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>24.612616542158474</v>
+        <v>0.16619528430114841</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>3</v>
@@ -527,7 +527,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="0">
-        <v>24.612640471651808</v>
+        <v>-0.044670638330138603</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>3</v>
@@ -541,7 +541,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="0">
-        <v>9.2062222823830346</v>
+        <v>-0.091145925747503589</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>3</v>
@@ -555,7 +555,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="0">
-        <v>27.798000683668846</v>
+        <v>0.40051266357528736</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>3</v>
@@ -569,10 +569,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="0">
-        <v>100</v>
+        <v>0.02778473963995574</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="0">
         <v>5</v>
@@ -583,7 +583,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="0">
-        <v>27.798025092886135</v>
+        <v>0.25573227623410949</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>3</v>
@@ -597,7 +597,7 @@
         <v>40</v>
       </c>
       <c r="B37" s="0">
-        <v>10.213339618352565</v>
+        <v>0.080068653329235781</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>3</v>
@@ -610,9 +610,7 @@
       <c r="A38" s="0">
         <v>41</v>
       </c>
-      <c r="B38" s="0">
-        <v>14.80154057588951</v>
-      </c>
+      <c r="B38" s="0"/>
       <c r="C38" s="0" t="s">
         <v>3</v>
       </c>
@@ -624,11 +622,9 @@
       <c r="A39" s="0">
         <v>42</v>
       </c>
-      <c r="B39" s="0">
-        <v>83.608681255222479</v>
-      </c>
+      <c r="B39" s="0"/>
       <c r="C39" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="0">
         <v>5</v>
@@ -638,11 +634,9 @@
       <c r="A40" s="0">
         <v>43</v>
       </c>
-      <c r="B40" s="0">
-        <v>83.608692327551353</v>
-      </c>
+      <c r="B40" s="0"/>
       <c r="C40" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="0">
         <v>5</v>
@@ -652,9 +646,7 @@
       <c r="A41" s="0">
         <v>44</v>
       </c>
-      <c r="B41" s="0">
-        <v>14.801549627682467</v>
-      </c>
+      <c r="B41" s="0"/>
       <c r="C41" s="0" t="s">
         <v>3</v>
       </c>
@@ -666,9 +658,7 @@
       <c r="A42" s="0">
         <v>45</v>
       </c>
-      <c r="B42" s="0">
-        <v>14.163826648677313</v>
-      </c>
+      <c r="B42" s="0"/>
       <c r="C42" s="0" t="s">
         <v>3</v>
       </c>
@@ -680,11 +670,9 @@
       <c r="A43" s="0">
         <v>46</v>
       </c>
-      <c r="B43" s="0">
-        <v>81.135834400346084</v>
-      </c>
+      <c r="B43" s="0"/>
       <c r="C43" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" s="0">
         <v>5</v>
@@ -694,11 +682,9 @@
       <c r="A44" s="0">
         <v>47</v>
       </c>
-      <c r="B44" s="0">
-        <v>81.135754012076958</v>
-      </c>
+      <c r="B44" s="0"/>
       <c r="C44" s="0" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="0">
         <v>5</v>
@@ -708,9 +694,7 @@
       <c r="A45" s="0">
         <v>48</v>
       </c>
-      <c r="B45" s="0">
-        <v>14.163741777550257</v>
-      </c>
+      <c r="B45" s="0"/>
       <c r="C45" s="0" t="s">
         <v>3</v>
       </c>
@@ -722,9 +706,7 @@
       <c r="A46" s="0">
         <v>49</v>
       </c>
-      <c r="B46" s="0">
-        <v>13.084318006936224</v>
-      </c>
+      <c r="B46" s="0"/>
       <c r="C46" s="0" t="s">
         <v>3</v>
       </c>
@@ -736,9 +718,7 @@
       <c r="A47" s="0">
         <v>50</v>
       </c>
-      <c r="B47" s="0">
-        <v>36.739566046987491</v>
-      </c>
+      <c r="B47" s="0"/>
       <c r="C47" s="0" t="s">
         <v>3</v>
       </c>
@@ -750,9 +730,7 @@
       <c r="A48" s="0">
         <v>51</v>
       </c>
-      <c r="B48" s="0">
-        <v>36.739380885186094</v>
-      </c>
+      <c r="B48" s="0"/>
       <c r="C48" s="0" t="s">
         <v>3</v>
       </c>
@@ -764,9 +742,7 @@
       <c r="A49" s="0">
         <v>52</v>
       </c>
-      <c r="B49" s="0">
-        <v>13.084124643940456</v>
-      </c>
+      <c r="B49" s="0"/>
       <c r="C49" s="0" t="s">
         <v>3</v>
       </c>
